--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-03-22T19:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>Observation[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse/$generateHealthCertificate</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -6585,7 +6588,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -10115,7 +10118,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
@@ -12135,7 +12138,7 @@
         <v>76</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>76</v>
@@ -13632,7 +13635,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13655,19 +13658,19 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -13716,7 +13719,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
